--- a/exp/stim/stimuli_all.xlsx
+++ b/exp/stim/stimuli_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/stim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C68071-D3CA-A54A-A171-9FA302663320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C3B196-3D1B-2E4A-B2DB-2C5512D42FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="720" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
+    <workbookView xWindow="5900" yWindow="720" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="full_list" sheetId="15" r:id="rId1"/>
@@ -3535,11 +3535,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3575,71 +3640,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3660,17 +3660,17 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="7"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -3725,11 +3725,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3745,11 +3745,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3780,16 +3780,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -3810,6 +3800,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8" tint="-0.24994659260841701"/>
       </font>
       <fill>
@@ -3820,11 +3820,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3835,6 +3835,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3875,16 +3885,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3965,11 +3965,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3985,11 +3985,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4020,11 +4020,136 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4050,21 +4175,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="8" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4085,6 +4210,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4145,31 +4290,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4190,131 +4315,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8117,15 +8117,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E2464C-A03A-1F45-9272-20D7FDC69068}">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" customWidth="1"/>
@@ -16147,14 +16147,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153:D171">
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
-      <formula>"sp"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="10" operator="equal">
       <formula>"es"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="6" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D172:D1048576">
@@ -16163,21 +16163,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E152 E153:E1048576">
-    <cfRule type="cellIs" dxfId="88" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
+      <formula>"es"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="16" operator="equal">
       <formula>"sp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="19" operator="equal">
       <formula>"en"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="20" operator="equal">
-      <formula>"es"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E171">
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="8" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
       <formula>"se"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17427,31 +17427,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D51 D58:D1048576">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"yn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"wh"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"yn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E51 E58:E1048576">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"cs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>"en"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"sp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"sp"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"en"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E26">
@@ -19507,7 +19507,7 @@
     <row r="31" spans="2:13" ht="20" x14ac:dyDescent="0.2">
       <c r="B31" s="44">
         <f t="shared" ref="B31" ca="1" si="0">CHOOSE(INT(RAND()*2+1),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19661,7 +19661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED6CCA2-4DFB-EA4E-8498-732231F484CB}">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -22590,21 +22590,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C56">
-    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C56">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"se"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22624,14 +22624,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F56">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="72" priority="10" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="71" priority="9" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F56">
@@ -25961,21 +25961,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C111">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92:C111">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"se"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25995,14 +25995,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F111">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:F111">
@@ -28265,20 +28265,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F56">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
-      <formula>"sp"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="8" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="9" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"es"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30573,21 +30573,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C56">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C56">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"se"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"se"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30607,14 +30607,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F56">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
-      <formula>"sp"</formula>
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+      <formula>"es"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
-      <formula>"es"</formula>
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+      <formula>"sp"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F56">
@@ -33769,31 +33769,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D51 D58:D1048576">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+      <formula>"yn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"wh"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
-      <formula>"yn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E51 E58:E1048576">
     <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
       <formula>"cs"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+      <formula>"en"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"sp"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"en"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"sp"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"en"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E26">
